--- a/database/impor-siswa.xlsx
+++ b/database/impor-siswa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TARUNA KARYA MANDIRI\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\banksampah_sekolah\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB415F5-475D-45DC-A878-058B78A9B151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B00C077-339B-423C-A640-6C511E4CE94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2846,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E805"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="C527" sqref="C527:C805"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="G265" sqref="G265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
